--- a/数据整理/stocks/其他/GB0007188757-力拓公司.xlsx
+++ b/数据整理/stocks/其他/GB0007188757-力拓公司.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -859,4 +860,212 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>539003</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>建信富时100指数（QDII）人民币A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0409</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008707</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>建信富时100指数（QDII）美元现汇A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0409</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008706</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>建信富时100指数（QDII）人民币C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008708</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>建信富时100指数（QDII）美元现汇C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/其他/GB0007188757-力拓公司.xlsx
+++ b/数据整理/stocks/其他/GB0007188757-力拓公司.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1068,4 +1069,212 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>539003</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>建信富时100指数（QDII）人民币A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0281</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008707</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>建信富时100指数（QDII）美元现汇A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0281</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008706</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>建信富时100指数（QDII）人民币C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008708</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>建信富时100指数（QDII）美元现汇C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/其他/GB0007188757-力拓公司.xlsx
+++ b/数据整理/stocks/其他/GB0007188757-力拓公司.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1277,4 +1278,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/其他/GB0007188757-力拓公司.xlsx
+++ b/数据整理/stocks/其他/GB0007188757-力拓公司.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1286,7 +1287,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1297,17 +1298,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1317,14 +1338,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.07000000000000001</v>
+          <t>008707</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>建信富时100指数（QDII）美元现汇A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.90</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1863</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1333,14 +1376,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.11</v>
+          <t>539003</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>建信富时100指数（QDII）人民币A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>95.90</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1349,14 +1414,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.1</v>
+          <t>008708</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>建信富时100指数（QDII）美元现汇C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>95.90</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1365,13 +1452,151 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>008706</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>建信富时100指数（QDII）人民币C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>95.90</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>4</v>
       </c>
       <c r="D5" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
         <v>0.11</v>
       </c>
     </row>

--- a/数据整理/stocks/其他/GB0007188757-力拓公司.xlsx
+++ b/数据整理/stocks/其他/GB0007188757-力拓公司.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1495,7 +1496,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1506,17 +1507,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1526,14 +1547,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.23</v>
+          <t>539003</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>建信富时100指数（QDII）人民币A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0305</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1542,14 +1585,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.07000000000000001</v>
+          <t>008707</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>建信富时100指数（QDII）美元现汇A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0305</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1558,14 +1623,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.11</v>
+          <t>008706</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>建信富时100指数（QDII）人民币C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1574,14 +1661,136 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>008708</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>建信富时100指数（QDII）美元现汇C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="6">
@@ -1590,13 +1799,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>4</v>
       </c>
       <c r="D6" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D7" t="n">
         <v>0.11</v>
       </c>
     </row>

--- a/数据整理/stocks/其他/GB0007188757-力拓公司.xlsx
+++ b/数据整理/stocks/其他/GB0007188757-力拓公司.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1704,7 +1705,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1715,17 +1716,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1735,14 +1756,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.08</v>
+          <t>539003</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>建信富时100指数（QDII）人民币A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0247</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1751,14 +1794,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.23</v>
+          <t>008707</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>建信富时100指数（QDII）美元现汇A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0247</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1767,14 +1832,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.07000000000000001</v>
+          <t>008706</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>建信富时100指数（QDII）人民币C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1783,14 +1870,136 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>008708</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>建信富时100指数（QDII）美元现汇C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>0.11</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="6">
@@ -1799,14 +2008,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="7">
@@ -1815,13 +2024,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>4</v>
       </c>
       <c r="D7" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>4</v>
+      </c>
+      <c r="D8" t="n">
         <v>0.11</v>
       </c>
     </row>

--- a/数据整理/stocks/其他/GB0007188757-力拓公司.xlsx
+++ b/数据整理/stocks/其他/GB0007188757-力拓公司.xlsx
@@ -6,14 +6,14 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,205 +457,145 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>008707</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>建信富时100指数（QDII）美元现汇A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.85</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.64</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.08</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0432</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
         <v>6</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>539003</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>建信富时100指数（QDII）人民币A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.85</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.64</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.08</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0432</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>008706</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>建信富时100指数（QDII）人民币C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.64</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.08</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0127</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>008708</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>建信富时100指数（QDII）美元现汇C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.64</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>5.08</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0127</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>6</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>4</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.11</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -686,7 +626,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -726,26 +666,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>0.70</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.92</t>
+          <t>92.47</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.53</t>
+          <t>3.53</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0385</t>
+          <t>0.0247</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -764,26 +704,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>0.70</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>91.92</t>
+          <t>92.47</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.53</t>
+          <t>3.53</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0385</t>
+          <t>0.0247</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -802,26 +742,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>91.92</t>
+          <t>92.47</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.53</t>
+          <t>3.53</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0113</t>
+          <t>0.0071</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -840,26 +780,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>91.92</t>
+          <t>92.47</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.53</t>
+          <t>3.53</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0113</t>
+          <t>0.0071</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -894,7 +834,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -934,26 +874,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.87</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.74</t>
+          <t>92.86</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.70</t>
+          <t>4.30</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0409</t>
+          <t>0.0305</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -972,26 +912,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.87</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.74</t>
+          <t>92.86</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.70</t>
+          <t>4.30</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0409</t>
+          <t>0.0305</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1010,26 +950,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.74</t>
+          <t>92.86</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.70</t>
+          <t>4.30</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0118</t>
+          <t>0.0086</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1048,26 +988,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.74</t>
+          <t>92.86</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.70</t>
+          <t>4.30</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0118</t>
+          <t>0.0086</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1102,7 +1042,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1132,32 +1072,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>539003</t>
+          <t>008707</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>建信富时100指数（QDII）人民币A</t>
+          <t>建信富时100指数（QDII）美元现汇A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.73</t>
+          <t>4.98</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.58</t>
+          <t>95.90</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.85</t>
+          <t>3.74</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0281</t>
+          <t>0.1863</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1170,32 +1110,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>008707</t>
+          <t>539003</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>建信富时100指数（QDII）美元现汇A</t>
+          <t>建信富时100指数（QDII）人民币A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.73</t>
+          <t>0.70</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.58</t>
+          <t>95.90</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.85</t>
+          <t>3.74</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0281</t>
+          <t>0.0262</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1208,32 +1148,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>008706</t>
+          <t>008708</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>建信富时100指数（QDII）人民币C</t>
+          <t>建信富时100指数（QDII）美元现汇C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.58</t>
+          <t>95.90</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.85</t>
+          <t>3.74</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0081</t>
+          <t>0.0071</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1246,32 +1186,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>008708</t>
+          <t>008706</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>建信富时100指数（QDII）美元现汇C</t>
+          <t>建信富时100指数（QDII）人民币C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.58</t>
+          <t>95.90</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.85</t>
+          <t>3.74</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0081</t>
+          <t>0.0071</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -1310,7 +1250,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1340,32 +1280,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>008707</t>
+          <t>539003</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>建信富时100指数（QDII）美元现汇A</t>
+          <t>建信富时100指数（QDII）人民币A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4.98</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>95.90</t>
+          <t>93.58</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.74</t>
+          <t>3.85</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1863</t>
+          <t>0.0281</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1378,32 +1318,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>539003</t>
+          <t>008707</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>建信富时100指数（QDII）人民币A</t>
+          <t>建信富时100指数（QDII）美元现汇A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.70</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>95.90</t>
+          <t>93.58</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.74</t>
+          <t>3.85</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0262</t>
+          <t>0.0281</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1416,32 +1356,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>008708</t>
+          <t>008706</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>建信富时100指数（QDII）美元现汇C</t>
+          <t>建信富时100指数（QDII）人民币C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>95.90</t>
+          <t>93.58</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.74</t>
+          <t>3.85</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0071</t>
+          <t>0.0081</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1454,32 +1394,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>008706</t>
+          <t>008708</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>建信富时100指数（QDII）人民币C</t>
+          <t>建信富时100指数（QDII）美元现汇C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>95.90</t>
+          <t>93.58</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.74</t>
+          <t>3.85</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0071</t>
+          <t>0.0081</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -1518,7 +1458,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1558,26 +1498,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.71</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.86</t>
+          <t>93.74</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.30</t>
+          <t>4.70</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0305</t>
+          <t>0.0409</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1596,26 +1536,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.71</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.86</t>
+          <t>93.74</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.30</t>
+          <t>4.70</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0305</t>
+          <t>0.0409</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1634,26 +1574,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.86</t>
+          <t>93.74</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.30</t>
+          <t>4.70</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0086</t>
+          <t>0.0118</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -1672,26 +1612,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>92.86</t>
+          <t>93.74</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.30</t>
+          <t>4.70</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0086</t>
+          <t>0.0118</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1726,7 +1666,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1766,26 +1706,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.70</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.47</t>
+          <t>91.92</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.53</t>
+          <t>4.53</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0247</t>
+          <t>0.0385</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1804,26 +1744,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.70</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.47</t>
+          <t>91.92</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.53</t>
+          <t>4.53</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0247</t>
+          <t>0.0385</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -1842,26 +1782,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.47</t>
+          <t>91.92</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.53</t>
+          <t>4.53</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0071</t>
+          <t>0.0113</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1880,26 +1820,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>92.47</t>
+          <t>91.92</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.53</t>
+          <t>4.53</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0071</t>
+          <t>0.0113</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1913,144 +1853,204 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.06</v>
+          <t>008707</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>建信富时100指数（QDII）美元现汇A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0432</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.08</v>
+          <t>539003</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>建信富时100指数（QDII）人民币A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0432</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.23</v>
+          <t>008706</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>建信富时100指数（QDII）人民币C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>4</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>4</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
+          <t>008708</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>建信富时100指数（QDII）美元现汇C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>4</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.11</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/其他/GB0007188757-力拓公司.xlsx
+++ b/数据整理/stocks/其他/GB0007188757-力拓公司.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>0.23</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>0.11</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>4</v>
       </c>
       <c r="D8" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>4</v>
+      </c>
+      <c r="D9" t="n">
         <v>0.11</v>
       </c>
     </row>
@@ -656,36 +673,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>539003</t>
+          <t>008707</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>建信富时100指数（QDII）人民币A</t>
+          <t>建信富时100指数（QDII）美元现汇 A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.70</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.47</t>
+          <t>89.38</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.53</t>
+          <t>3.55</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0247</t>
+          <t>0.0170</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -694,36 +711,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>008707</t>
+          <t>539003</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>建信富时100指数（QDII）美元现汇A</t>
+          <t>建信富时100指数（QDII）人民币A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.70</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.47</t>
+          <t>89.38</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.53</t>
+          <t>3.55</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0247</t>
+          <t>0.0170</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -737,31 +754,31 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>建信富时100指数（QDII）人民币C</t>
+          <t>建信富时100指数（QDII）人民币 C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.47</t>
+          <t>89.38</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.53</t>
+          <t>3.55</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0071</t>
+          <t>0.0067</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -775,31 +792,31 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>建信富时100指数（QDII）美元现汇C</t>
+          <t>建信富时100指数（QDII）美元现汇 C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>92.47</t>
+          <t>89.38</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.53</t>
+          <t>3.55</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0071</t>
+          <t>0.0067</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -874,22 +891,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.71</t>
+          <t>0.70</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.86</t>
+          <t>92.47</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.30</t>
+          <t>3.53</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0305</t>
+          <t>0.0247</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -912,22 +929,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.71</t>
+          <t>0.70</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.86</t>
+          <t>92.47</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.30</t>
+          <t>3.53</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0305</t>
+          <t>0.0247</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -955,17 +972,17 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.86</t>
+          <t>92.47</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.30</t>
+          <t>3.53</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0086</t>
+          <t>0.0071</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -993,17 +1010,17 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>92.86</t>
+          <t>92.47</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.30</t>
+          <t>3.53</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0086</t>
+          <t>0.0071</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -1072,36 +1089,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>008707</t>
+          <t>539003</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>建信富时100指数（QDII）美元现汇A</t>
+          <t>建信富时100指数（QDII）人民币A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4.98</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>95.90</t>
+          <t>92.86</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.74</t>
+          <t>4.30</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1863</t>
+          <t>0.0305</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1110,36 +1127,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>539003</t>
+          <t>008707</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>建信富时100指数（QDII）人民币A</t>
+          <t>建信富时100指数（QDII）美元现汇A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.70</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>95.90</t>
+          <t>92.86</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.74</t>
+          <t>4.30</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0262</t>
+          <t>0.0305</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1148,36 +1165,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>008708</t>
+          <t>008706</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>建信富时100指数（QDII）美元现汇C</t>
+          <t>建信富时100指数（QDII）人民币C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>95.90</t>
+          <t>92.86</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.74</t>
+          <t>4.30</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0071</t>
+          <t>0.0086</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1186,36 +1203,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>008706</t>
+          <t>008708</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>建信富时100指数（QDII）人民币C</t>
+          <t>建信富时100指数（QDII）美元现汇C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>95.90</t>
+          <t>92.86</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.74</t>
+          <t>4.30</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0071</t>
+          <t>0.0086</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1250,7 +1267,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1280,32 +1297,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>539003</t>
+          <t>008707</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>建信富时100指数（QDII）人民币A</t>
+          <t>建信富时100指数（QDII）美元现汇A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.73</t>
+          <t>4.98</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.58</t>
+          <t>95.90</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.85</t>
+          <t>3.74</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0281</t>
+          <t>0.1863</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1318,32 +1335,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>008707</t>
+          <t>539003</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>建信富时100指数（QDII）美元现汇A</t>
+          <t>建信富时100指数（QDII）人民币A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.73</t>
+          <t>0.70</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.58</t>
+          <t>95.90</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.85</t>
+          <t>3.74</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0281</t>
+          <t>0.0262</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1356,32 +1373,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>008706</t>
+          <t>008708</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>建信富时100指数（QDII）人民币C</t>
+          <t>建信富时100指数（QDII）美元现汇C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.58</t>
+          <t>95.90</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.85</t>
+          <t>3.74</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0081</t>
+          <t>0.0071</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1394,32 +1411,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>008708</t>
+          <t>008706</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>建信富时100指数（QDII）美元现汇C</t>
+          <t>建信富时100指数（QDII）人民币C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.58</t>
+          <t>95.90</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.85</t>
+          <t>3.74</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0081</t>
+          <t>0.0071</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -1498,26 +1515,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.87</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.74</t>
+          <t>93.58</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.70</t>
+          <t>3.85</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0409</t>
+          <t>0.0281</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1536,26 +1553,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.87</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.74</t>
+          <t>93.58</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.70</t>
+          <t>3.85</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0409</t>
+          <t>0.0281</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1574,26 +1591,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.74</t>
+          <t>93.58</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.70</t>
+          <t>3.85</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0118</t>
+          <t>0.0081</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1612,26 +1629,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.74</t>
+          <t>93.58</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.70</t>
+          <t>3.85</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0118</t>
+          <t>0.0081</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1706,26 +1723,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.92</t>
+          <t>93.74</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.53</t>
+          <t>4.70</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0385</t>
+          <t>0.0409</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1744,26 +1761,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>91.92</t>
+          <t>93.74</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.53</t>
+          <t>4.70</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0385</t>
+          <t>0.0409</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1787,21 +1804,21 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>91.92</t>
+          <t>93.74</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.53</t>
+          <t>4.70</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0113</t>
+          <t>0.0118</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -1825,21 +1842,21 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>91.92</t>
+          <t>93.74</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.53</t>
+          <t>4.70</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0113</t>
+          <t>0.0118</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1848,6 +1865,214 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>539003</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>建信富时100指数（QDII）人民币A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.92</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0385</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008707</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>建信富时100指数（QDII）美元现汇A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.92</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0385</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008706</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>建信富时100指数（QDII）人民币C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.92</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008708</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>建信富时100指数（QDII）美元现汇C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.92</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/其他/GB0007188757-力拓公司.xlsx
+++ b/数据整理/stocks/其他/GB0007188757-力拓公司.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>0.23</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>0.11</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>4</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="9">
@@ -601,18 +602,242 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C9" t="n">
         <v>4</v>
       </c>
       <c r="D9" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>4</v>
+      </c>
+      <c r="D10" t="n">
         <v>0.11</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008707</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>建信富时100指数（QDII）美元现汇A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0432</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>539003</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>建信富时100指数（QDII）人民币A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0432</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008706</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>建信富时100指数（QDII）人民币C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008708</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>建信富时100指数（QDII）美元现汇C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -673,32 +898,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>008707</t>
+          <t>539003</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>建信富时100指数（QDII）美元现汇 A</t>
+          <t>建信富时100指数（QDII）人民币A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.48</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>89.38</t>
+          <t>85.06</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.55</t>
+          <t>3.72</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0170</t>
+          <t>0.0208</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -711,32 +936,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>539003</t>
+          <t>008707</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>建信富时100指数（QDII）人民币A</t>
+          <t>建信富时100指数（QDII）美元现汇 A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.48</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>89.38</t>
+          <t>85.06</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.55</t>
+          <t>3.72</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0170</t>
+          <t>0.0208</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -759,22 +984,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>89.38</t>
+          <t>85.06</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.55</t>
+          <t>3.72</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0067</t>
+          <t>0.0097</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -797,22 +1022,22 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>89.38</t>
+          <t>85.06</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.55</t>
+          <t>3.72</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0067</t>
+          <t>0.0097</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -881,36 +1106,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>539003</t>
+          <t>008707</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>建信富时100指数（QDII）人民币A</t>
+          <t>建信富时100指数（QDII）美元现汇 A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.70</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.47</t>
+          <t>89.38</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.53</t>
+          <t>3.55</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0247</t>
+          <t>0.0170</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -919,36 +1144,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>008707</t>
+          <t>539003</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>建信富时100指数（QDII）美元现汇A</t>
+          <t>建信富时100指数（QDII）人民币A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.70</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.47</t>
+          <t>89.38</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.53</t>
+          <t>3.55</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0247</t>
+          <t>0.0170</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -962,31 +1187,31 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>建信富时100指数（QDII）人民币C</t>
+          <t>建信富时100指数（QDII）人民币 C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.47</t>
+          <t>89.38</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.53</t>
+          <t>3.55</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0071</t>
+          <t>0.0067</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -1000,31 +1225,31 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>建信富时100指数（QDII）美元现汇C</t>
+          <t>建信富时100指数（QDII）美元现汇 C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>92.47</t>
+          <t>89.38</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.53</t>
+          <t>3.55</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0071</t>
+          <t>0.0067</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1099,22 +1324,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.71</t>
+          <t>0.70</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.86</t>
+          <t>92.47</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.30</t>
+          <t>3.53</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0305</t>
+          <t>0.0247</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1137,22 +1362,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.71</t>
+          <t>0.70</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.86</t>
+          <t>92.47</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.30</t>
+          <t>3.53</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0305</t>
+          <t>0.0247</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1180,17 +1405,17 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.86</t>
+          <t>92.47</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.30</t>
+          <t>3.53</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0086</t>
+          <t>0.0071</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1218,17 +1443,17 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>92.86</t>
+          <t>92.47</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.30</t>
+          <t>3.53</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0086</t>
+          <t>0.0071</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -1297,36 +1522,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>008707</t>
+          <t>539003</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>建信富时100指数（QDII）美元现汇A</t>
+          <t>建信富时100指数（QDII）人民币A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4.98</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>95.90</t>
+          <t>92.86</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.74</t>
+          <t>4.30</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1863</t>
+          <t>0.0305</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1335,36 +1560,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>539003</t>
+          <t>008707</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>建信富时100指数（QDII）人民币A</t>
+          <t>建信富时100指数（QDII）美元现汇A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.70</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>95.90</t>
+          <t>92.86</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.74</t>
+          <t>4.30</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0262</t>
+          <t>0.0305</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1373,36 +1598,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>008708</t>
+          <t>008706</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>建信富时100指数（QDII）美元现汇C</t>
+          <t>建信富时100指数（QDII）人民币C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>95.90</t>
+          <t>92.86</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.74</t>
+          <t>4.30</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0071</t>
+          <t>0.0086</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1411,36 +1636,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>008706</t>
+          <t>008708</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>建信富时100指数（QDII）人民币C</t>
+          <t>建信富时100指数（QDII）美元现汇C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>95.90</t>
+          <t>92.86</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.74</t>
+          <t>4.30</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0071</t>
+          <t>0.0086</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1475,7 +1700,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1505,32 +1730,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>539003</t>
+          <t>008707</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>建信富时100指数（QDII）人民币A</t>
+          <t>建信富时100指数（QDII）美元现汇A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.73</t>
+          <t>4.98</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.58</t>
+          <t>95.90</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.85</t>
+          <t>3.74</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0281</t>
+          <t>0.1863</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1543,32 +1768,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>008707</t>
+          <t>539003</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>建信富时100指数（QDII）美元现汇A</t>
+          <t>建信富时100指数（QDII）人民币A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.73</t>
+          <t>0.70</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.58</t>
+          <t>95.90</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.85</t>
+          <t>3.74</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0281</t>
+          <t>0.0262</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1581,32 +1806,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>008706</t>
+          <t>008708</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>建信富时100指数（QDII）人民币C</t>
+          <t>建信富时100指数（QDII）美元现汇C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.58</t>
+          <t>95.90</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.85</t>
+          <t>3.74</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0081</t>
+          <t>0.0071</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1619,32 +1844,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>008708</t>
+          <t>008706</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>建信富时100指数（QDII）美元现汇C</t>
+          <t>建信富时100指数（QDII）人民币C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.58</t>
+          <t>95.90</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.85</t>
+          <t>3.74</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0081</t>
+          <t>0.0071</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -1723,26 +1948,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.87</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.74</t>
+          <t>93.58</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.70</t>
+          <t>3.85</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0409</t>
+          <t>0.0281</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1761,26 +1986,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.87</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.74</t>
+          <t>93.58</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.70</t>
+          <t>3.85</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0409</t>
+          <t>0.0281</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1799,26 +2024,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.74</t>
+          <t>93.58</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.70</t>
+          <t>3.85</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0118</t>
+          <t>0.0081</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1837,26 +2062,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.74</t>
+          <t>93.58</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.70</t>
+          <t>3.85</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0118</t>
+          <t>0.0081</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1931,26 +2156,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.92</t>
+          <t>93.74</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.53</t>
+          <t>4.70</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0385</t>
+          <t>0.0409</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1969,26 +2194,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>91.92</t>
+          <t>93.74</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.53</t>
+          <t>4.70</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0385</t>
+          <t>0.0409</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -2012,21 +2237,21 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>91.92</t>
+          <t>93.74</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.53</t>
+          <t>4.70</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0113</t>
+          <t>0.0118</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -2050,21 +2275,21 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>91.92</t>
+          <t>93.74</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.53</t>
+          <t>4.70</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0113</t>
+          <t>0.0118</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -2080,127 +2305,127 @@
   </sheetPr>
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>基金金额</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>539003</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>建信富时100指数（QDII）人民币A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.92</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0385</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>008707</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>建信富时100指数（QDII）美元现汇A</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>0.85</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.64</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.08</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0432</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>539003</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>建信富时100指数（QDII）人民币A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.85</t>
-        </is>
-      </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.64</t>
+          <t>91.92</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.08</t>
+          <t>4.53</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0432</t>
+          <t>0.0385</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
@@ -2220,25 +2445,25 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.64</t>
+          <t>91.92</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.08</t>
+          <t>4.53</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0127</t>
+          <t>0.0113</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
@@ -2258,24 +2483,24 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.64</t>
+          <t>91.92</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.08</t>
+          <t>4.53</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0127</t>
+          <t>0.0113</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>